--- a/REVER_DailyTracker_20200507.xlsx
+++ b/REVER_DailyTracker_20200507.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AD4E52-68FF-4CC0-9EA4-1298C20AFAD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE729C7-FEF1-490F-8824-A5E6CCD3CA15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1536" windowWidth="23040" windowHeight="10884" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="20">
   <si>
     <t>Task</t>
   </si>
@@ -87,6 +87,21 @@
     <t>1. Datass are fetched from CRM table and displayed the results in dropdownlist dynamically
 2. Customer type dropdownlist has been created using using enum and displayed in right order
 3. Working on onchange events to select all emailid based on customer types.</t>
+  </si>
+  <si>
+    <t>B2C App</t>
+  </si>
+  <si>
+    <t>New API warrantyType API is developed</t>
+  </si>
+  <si>
+    <t>OBIC macro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To remove userform and have macro </t>
+  </si>
+  <si>
+    <t>Stil code changes pending need to test</t>
   </si>
 </sst>
 </file>
@@ -198,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -222,6 +237,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,7 +556,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -975,8 +992,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,21 +1032,39 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="6">
+        <v>44017</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
+      <c r="B3" s="17">
+        <v>44017</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>

--- a/REVER_DailyTracker_20200507.xlsx
+++ b/REVER_DailyTracker_20200507.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE729C7-FEF1-490F-8824-A5E6CCD3CA15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D1B1E1-503C-41C4-AC44-E124DA281DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Stil code changes pending need to test</t>
+  </si>
+  <si>
+    <t>MujiStore</t>
+  </si>
+  <si>
+    <t>Subnet Integration for Troubleshooting</t>
   </si>
 </sst>
 </file>
@@ -560,18 +566,18 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -592,7 +598,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -602,44 +608,44 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
@@ -660,18 +666,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -694,7 +700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -703,7 +709,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -712,46 +718,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -768,22 +774,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -806,16 +812,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43958</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -824,46 +842,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -884,18 +902,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -918,7 +936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -927,7 +945,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -936,46 +954,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -992,22 +1010,22 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1030,7 +1048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6">
         <v>44017</v>
@@ -1047,7 +1065,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="17">
         <v>44017</v>
@@ -1066,46 +1084,46 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1126,18 +1144,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1160,7 +1178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1181,7 +1199,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1190,46 +1208,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1250,18 +1268,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1284,7 +1302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1293,7 +1311,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1302,46 +1320,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1362,18 +1380,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1396,7 +1414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1405,7 +1423,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1414,46 +1432,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1474,18 +1492,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1508,7 +1526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1517,7 +1535,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1526,46 +1544,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1586,18 +1604,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1620,7 +1638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1629,7 +1647,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1638,46 +1656,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200507.xlsx
+++ b/REVER_DailyTracker_20200507.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D1B1E1-503C-41C4-AC44-E124DA281DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,9 +18,9 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="24">
   <si>
     <t>Task</t>
   </si>
@@ -108,16 +102,22 @@
   </si>
   <si>
     <t>Subnet Integration for Troubleshooting</t>
+  </si>
+  <si>
+    <t>Hayyai</t>
+  </si>
+  <si>
+    <t>Fine tuning Hayyai applications</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -357,7 +357,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -551,14 +551,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -566,7 +566,7 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -577,7 +577,7 @@
     <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -598,7 +598,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -608,44 +608,44 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
@@ -658,7 +658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -666,7 +666,7 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -677,7 +677,7 @@
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -700,7 +700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -709,7 +709,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -718,46 +718,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -770,15 +770,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -789,7 +789,7 @@
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -812,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -833,7 +833,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -842,46 +842,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -894,15 +894,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -913,7 +913,7 @@
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -936,16 +936,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43958</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.7</v>
+      </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -954,46 +966,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1006,7 +1018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1014,7 +1026,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -1025,7 +1037,7 @@
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1048,7 +1060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6">
         <v>44017</v>
@@ -1065,7 +1077,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="17">
         <v>44017</v>
@@ -1084,46 +1096,46 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1136,7 +1148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1144,7 +1156,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -1155,7 +1167,7 @@
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1178,7 +1190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1199,7 +1211,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1208,46 +1220,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1260,7 +1272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1268,7 +1280,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -1279,7 +1291,7 @@
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1302,7 +1314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1311,7 +1323,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1320,46 +1332,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1372,7 +1384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1380,7 +1392,7 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -1391,7 +1403,7 @@
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1414,7 +1426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1423,7 +1435,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1432,46 +1444,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1484,7 +1496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1492,7 +1504,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -1503,7 +1515,7 @@
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1526,7 +1538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1535,7 +1547,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1544,46 +1556,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1596,7 +1608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1604,7 +1616,7 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -1615,7 +1627,7 @@
     <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1638,7 +1650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1647,7 +1659,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1656,46 +1668,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
